--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act6d5 Ancient Forge 洪炉示岁 洪炉示歳/level_act6d5_st03.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act6d5 Ancient Forge 洪炉示岁 洪炉示歳/level_act6d5_st03.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">In order to reclaim the city from Nian, Rhodes Island and Lungmen join forces to make a desperate move. Just when the battle is about to reach its climax… the director decides to interrupt everything.
+    <t xml:space="preserve">In order to reclaim the city from Nian, Rhodes Island and Lungmen join forces to make a desperate move. Just when the battle is about to reach its climax... the director decides to interrupt everything.
 </t>
   </si>
   <si>
